--- a/biology/Botanique/Cryptogramma/Cryptogramma.xlsx
+++ b/biology/Botanique/Cryptogramma/Cryptogramma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptogramma est un genre de fougères de la famille des Pteridaceae.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (9 août 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (9 août 2016) :
 Cryptogramma acrostichoides R. Br.
 Cryptogramma cascadensis E.R. Alverson
 Cryptogramma crispa (L.) R. Br. ex Hook.
 Cryptogramma sitchensis (Rupr.) T. Moore
 Cryptogramma stelleri (Gmel.) Prantl
-Selon Catalogue of Life                                   (9 août 2016)[4] :
+Selon Catalogue of Life                                   (9 août 2016) :
 Cryptogramma acrostichoides R. Br. apud Richards.
 Cryptogramma bithynica S.Jess., L.Lehm. &amp; Bujnoch
 Cryptogramma brunoniana
@@ -529,17 +543,17 @@
 Cryptogramma gorovoii Vaganov &amp; Shmakov
 Cryptogramma sitchensis (Rupr.) Moore
 Cryptogramma stelleri (Gmel.) Prantl
-Selon GRIN            (9 août 2016)[2] :
+Selon GRIN            (9 août 2016) :
 Cryptogramma acrostichoides R. Br.
 Cryptogramma sitchensis (Rupr.) T. Moore
 Cryptogramma stelleri (S. G. Gmel.) Prantl
-Selon ITIS      (9 août 2016)[5] :
+Selon ITIS      (9 août 2016) :
 Cryptogramma acrostichoides R. Br.
 Cryptogramma cascadensis E.R. Alverson
 Cryptogramma crispa (L.) R. Br.
 Cryptogramma sitchensis (Rupr.) T. Moore
 Cryptogramma stelleri (S.G. Gmel.) Prantl
-Selon The Plant List            (9 août 2016)[6] :
+Selon The Plant List            (9 août 2016) :
 Cryptogramma acrostichoides R. Br.
 Cryptogramma brunoniana Wall. ex Hook. &amp; Grev.
 Cryptogramma cascadensis E.R. Alverson
@@ -552,7 +566,7 @@
 Cryptogramma shensiensis Ching
 Cryptogramma sitchensis (Rupr.) T. Moore
 Cryptogramma stelleri (S.G. Gmel.) Prantl
-Selon Tropicos                                           (9 août 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 août 2016) (Attention liste brute contenant possiblement des synonymes) :
 Cryptogramma acrostichoides R. Br.
 Cryptogramma aurata (Kaulf.) Prantl
 Cryptogramma bithynica S. Jess., L. Lehm. &amp; Bujnoch
